--- a/PLAN-IP-CLOSERIE.xlsx
+++ b/PLAN-IP-CLOSERIE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien.bossuet\PycharmProjects\stormshield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B535233-1E40-4AD7-B25A-6F303C1D7BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304500D4-4D82-4905-98B6-89023DA6D1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AC193-F372-4184-A4F4-83FD6BF84E99}"/>
   </bookViews>
@@ -95,12 +95,6 @@
     <t xml:space="preserve"> 10.28.16.0/24</t>
   </si>
   <si>
-    <t xml:space="preserve">NET_WIFI PRIV                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NET_WIFI PATIENT                    </t>
-  </si>
-  <si>
     <t>NET_MGMT                                </t>
   </si>
   <si>
@@ -116,18 +110,12 @@
     <t xml:space="preserve">NET_TELEPHONIE                      </t>
   </si>
   <si>
-    <t>NET_CONTROLE D’ACCES         </t>
-  </si>
-  <si>
     <t>NET_GTC                                     </t>
   </si>
   <si>
     <t>NET_INTERPHONIE                    </t>
   </si>
   <si>
-    <t>NET_APPEL MALADE                 </t>
-  </si>
-  <si>
     <t xml:space="preserve">NET_CAMERA                             </t>
   </si>
   <si>
@@ -149,7 +137,19 @@
     <t>NET_MGMT-AP</t>
   </si>
   <si>
-    <t>NET_USERS CLINIQUE</t>
+    <t xml:space="preserve">NET_WIFI-PATIENT                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET_WIFI-PRIV                           </t>
+  </si>
+  <si>
+    <t>NET_USERS-CLINIQUE</t>
+  </si>
+  <si>
+    <t>NET_CONTROLE-ACCES         </t>
+  </si>
+  <si>
+    <t>NET_APPEL-MALADE                 </t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21289B91-9793-41B2-B740-A771CFEEF09F}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -701,20 +701,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="de2d5e23-da56-4fb4-8628-931450489eb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="de2d5e23-da56-4fb4-8628-931450489eb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,6 +951,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D1CDAD-6E25-4D15-9B0B-B6715C12F2BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C14BF05-5DBC-4884-89D1-3256621824A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -963,14 +971,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="03f58b99-af9b-4c05-a60c-109e9912b91b"/>
     <ds:schemaRef ds:uri="de2d5e23-da56-4fb4-8628-931450489eb7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D1CDAD-6E25-4D15-9B0B-B6715C12F2BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
